--- a/src/main/resources/files/Weights.xlsx
+++ b/src/main/resources/files/Weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalia/Documents/CEU/Asignaturas/SistemasSoporte/AnemiaDSS/src/main/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF2DEA7-C682-D34D-BFD8-98B4E6840BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C54F519-CCE0-2C4F-8A04-E9028DC973DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1600" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -305,28 +305,28 @@
     <t>Polycythemia</t>
   </si>
   <si>
-    <t>Anemic syndrome</t>
-  </si>
-  <si>
-    <t>Posthemorrhagic anemia</t>
-  </si>
-  <si>
-    <t>Hemolytic anemia</t>
-  </si>
-  <si>
-    <t>Inherited spherocytosis</t>
-  </si>
-  <si>
-    <t>Iron-deficiency anemia</t>
-  </si>
-  <si>
-    <t>Megaloblastic anemia</t>
-  </si>
-  <si>
-    <t>Aplasic anemia</t>
-  </si>
-  <si>
-    <t>Chronic disease anemia</t>
+    <t>Anemic_syndrome</t>
+  </si>
+  <si>
+    <t>Posthemorrhagic_anemia</t>
+  </si>
+  <si>
+    <t>Hemolytic_anemia</t>
+  </si>
+  <si>
+    <t>Inherited_spherocytosis</t>
+  </si>
+  <si>
+    <t>Irondeficiency_anemia</t>
+  </si>
+  <si>
+    <t>Megaloblastic_anemia</t>
+  </si>
+  <si>
+    <t>Aplasic_anemia</t>
+  </si>
+  <si>
+    <t>Chronic_disease_anemia</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/files/Weights.xlsx
+++ b/src/main/resources/files/Weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalia/Documents/CEU/Asignaturas/SistemasSoporte/AnemiaDSS/src/main/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C54F519-CCE0-2C4F-8A04-E9028DC973DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524041E9-D760-A046-987B-3FA4247D34C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,136 +571,115 @@
     <xf numFmtId="3" fontId="6" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,7 +1020,7 @@
   <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1232,85 +1211,85 @@
       <c r="A2" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>10838</v>
       </c>
-      <c r="D2" s="16">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-      <c r="F2" s="16">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16">
-        <v>0</v>
-      </c>
-      <c r="H2" s="16">
-        <v>0</v>
-      </c>
-      <c r="I2" s="14">
-        <v>0</v>
-      </c>
-      <c r="J2" s="16">
-        <v>0</v>
-      </c>
-      <c r="K2" s="16">
-        <v>0</v>
-      </c>
-      <c r="L2" s="14">
-        <v>0</v>
-      </c>
-      <c r="M2" s="14">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14">
-        <v>0</v>
-      </c>
-      <c r="O2" s="14">
-        <v>0</v>
-      </c>
-      <c r="P2" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="14">
-        <v>0</v>
-      </c>
-      <c r="R2" s="16">
-        <v>0</v>
-      </c>
-      <c r="S2" s="16">
-        <v>0</v>
-      </c>
-      <c r="T2" s="17">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18">
-        <v>0</v>
-      </c>
-      <c r="V2" s="17">
-        <v>0</v>
-      </c>
-      <c r="W2" s="18">
-        <v>0</v>
-      </c>
-      <c r="X2" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="18">
+      <c r="D2" s="20">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>0</v>
+      </c>
+      <c r="J2" s="20">
+        <v>0</v>
+      </c>
+      <c r="K2" s="20">
+        <v>0</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19">
+        <v>0</v>
+      </c>
+      <c r="N2" s="19">
+        <v>0</v>
+      </c>
+      <c r="O2" s="19">
+        <v>0</v>
+      </c>
+      <c r="P2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>0</v>
+      </c>
+      <c r="R2" s="20">
+        <v>0</v>
+      </c>
+      <c r="S2" s="20">
+        <v>0</v>
+      </c>
+      <c r="T2" s="11">
+        <v>0</v>
+      </c>
+      <c r="U2" s="21">
+        <v>0</v>
+      </c>
+      <c r="V2" s="11">
+        <v>0</v>
+      </c>
+      <c r="W2" s="21">
+        <v>0</v>
+      </c>
+      <c r="X2" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="21">
         <v>0</v>
       </c>
       <c r="Z2" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AA2" s="14">
         <v>11663</v>
       </c>
-      <c r="AB2" s="17" t="s">
+      <c r="AB2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AC2" s="11">
@@ -1319,10 +1298,10 @@
       <c r="AD2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AF2" s="15">
+      <c r="AF2" s="14">
         <v>6663</v>
       </c>
       <c r="AG2" s="11">
@@ -1331,73 +1310,73 @@
       <c r="AH2" s="11">
         <v>8338</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AI2" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AJ2" s="15">
+      <c r="AJ2" s="14">
         <v>9162</v>
       </c>
-      <c r="AK2" s="15">
+      <c r="AK2" s="14">
         <v>5838</v>
       </c>
       <c r="AL2" s="11">
         <v>1663</v>
       </c>
-      <c r="AM2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="20">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="20">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="20">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="20">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="20">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="20">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="19">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="20">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="20">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="20">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="20">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="19">
+      <c r="AM2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="22">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="23">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="23">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="23">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="23">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1405,172 +1384,172 @@
       <c r="A3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="21">
-        <v>0</v>
-      </c>
-      <c r="C3" s="22">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22">
-        <v>0</v>
-      </c>
-      <c r="E3" s="22">
-        <v>0</v>
-      </c>
-      <c r="F3" s="22">
-        <v>0</v>
-      </c>
-      <c r="G3" s="23" t="s">
+      <c r="B3" s="24">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="22">
-        <v>0</v>
-      </c>
-      <c r="I3" s="24">
-        <v>0</v>
-      </c>
-      <c r="J3" s="25">
+      <c r="H3" s="25">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
         <v>8573</v>
       </c>
-      <c r="K3" s="25">
+      <c r="K3" s="15">
         <v>6667</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="15">
         <v>7613</v>
       </c>
-      <c r="M3" s="21">
-        <v>0</v>
-      </c>
-      <c r="N3" s="25">
+      <c r="M3" s="24">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15">
         <v>13333</v>
       </c>
-      <c r="O3" s="21">
-        <v>0</v>
-      </c>
-      <c r="P3" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="21">
-        <v>0</v>
-      </c>
-      <c r="R3" s="23" t="s">
+      <c r="O3" s="24">
+        <v>0</v>
+      </c>
+      <c r="P3" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>0</v>
+      </c>
+      <c r="R3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="22">
-        <v>0</v>
-      </c>
-      <c r="T3" s="26">
-        <v>0</v>
-      </c>
-      <c r="U3" s="27">
-        <v>0</v>
-      </c>
-      <c r="V3" s="26">
-        <v>0</v>
-      </c>
-      <c r="W3" s="27">
-        <v>0</v>
-      </c>
-      <c r="X3" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="23" t="s">
+      <c r="S3" s="25">
+        <v>0</v>
+      </c>
+      <c r="T3" s="27">
+        <v>0</v>
+      </c>
+      <c r="U3" s="28">
+        <v>0</v>
+      </c>
+      <c r="V3" s="27">
+        <v>0</v>
+      </c>
+      <c r="W3" s="28">
+        <v>0</v>
+      </c>
+      <c r="X3" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AA3" s="15">
         <v>3813</v>
       </c>
-      <c r="AB3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="25">
+      <c r="AB3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="15">
         <v>2853</v>
       </c>
-      <c r="AF3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="25">
+      <c r="AF3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="15">
         <v>12387</v>
       </c>
-      <c r="AI3" s="26">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="25">
+      <c r="AI3" s="27">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="15">
         <v>1907</v>
       </c>
-      <c r="AK3" s="26" t="s">
+      <c r="AK3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="AL3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="25">
+      <c r="AL3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="15">
         <v>11427</v>
       </c>
-      <c r="AN3" s="23" t="s">
+      <c r="AN3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="AO3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AS3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="28">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="29">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="28">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="29">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="29">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="29">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="28">
+      <c r="AO3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="30">
+        <v>0</v>
+      </c>
+      <c r="BE3" s="29">
         <v>0</v>
       </c>
     </row>
@@ -1578,10 +1557,10 @@
       <c r="A4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="16">
         <v>7143</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="16">
         <v>6667</v>
       </c>
       <c r="D4" s="31">
@@ -1593,10 +1572,10 @@
       <c r="F4" s="31">
         <v>0</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="16">
         <v>4762</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="16">
         <v>5238</v>
       </c>
       <c r="I4" s="32">
@@ -1605,145 +1584,145 @@
       <c r="J4" s="31">
         <v>0</v>
       </c>
-      <c r="K4" s="30">
+      <c r="K4" s="16">
         <v>4286</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="30">
+      <c r="M4" s="16">
         <v>3333</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="16">
         <v>2857</v>
       </c>
-      <c r="O4" s="34">
-        <v>0</v>
-      </c>
-      <c r="P4" s="33" t="s">
+      <c r="O4" s="33">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="16">
         <v>5714</v>
       </c>
-      <c r="R4" s="30">
+      <c r="R4" s="16">
         <v>9048</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="16">
         <v>8095</v>
       </c>
-      <c r="T4" s="30">
+      <c r="T4" s="16">
         <v>2381</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="16">
         <v>8571</v>
       </c>
-      <c r="V4" s="35">
-        <v>0</v>
-      </c>
-      <c r="W4" s="36">
-        <v>0</v>
-      </c>
-      <c r="X4" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="35" t="s">
+      <c r="V4" s="34">
+        <v>0</v>
+      </c>
+      <c r="W4" s="35">
+        <v>0</v>
+      </c>
+      <c r="X4" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="30">
+      <c r="AA4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="16">
         <v>1905</v>
       </c>
-      <c r="AI4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="30">
+      <c r="AI4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="16">
         <v>7619</v>
       </c>
-      <c r="AQ4" s="30">
+      <c r="AQ4" s="16">
         <v>9524</v>
       </c>
-      <c r="AR4" s="30">
+      <c r="AR4" s="16">
         <v>1429</v>
       </c>
-      <c r="AS4" s="35" t="s">
+      <c r="AS4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="AT4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="38">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="37">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="38">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="37">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="37">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="37">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="37">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="38">
+      <c r="AT4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="37">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="37">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="36">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="36">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="36">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="36">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="37">
         <v>0</v>
       </c>
     </row>
@@ -1751,139 +1730,139 @@
       <c r="A5" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="39">
-        <v>0</v>
-      </c>
-      <c r="C5" s="40">
-        <v>0</v>
-      </c>
-      <c r="D5" s="40">
-        <v>0</v>
-      </c>
-      <c r="E5" s="40">
-        <v>0</v>
-      </c>
-      <c r="F5" s="40">
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
+      <c r="B5" s="38">
+        <v>0</v>
+      </c>
+      <c r="C5" s="39">
+        <v>0</v>
+      </c>
+      <c r="D5" s="39">
+        <v>0</v>
+      </c>
+      <c r="E5" s="39">
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17">
         <v>9886</v>
       </c>
-      <c r="H5" s="40">
-        <v>0</v>
-      </c>
-      <c r="I5" s="39">
-        <v>0</v>
-      </c>
-      <c r="J5" s="40">
-        <v>0</v>
-      </c>
-      <c r="K5" s="40">
-        <v>0</v>
-      </c>
-      <c r="L5" s="41">
+      <c r="H5" s="39">
+        <v>0</v>
+      </c>
+      <c r="I5" s="38">
+        <v>0</v>
+      </c>
+      <c r="J5" s="39">
+        <v>0</v>
+      </c>
+      <c r="K5" s="39">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
         <v>8786</v>
       </c>
-      <c r="M5" s="39">
-        <v>0</v>
-      </c>
-      <c r="N5" s="41">
+      <c r="M5" s="38">
+        <v>0</v>
+      </c>
+      <c r="N5" s="17">
         <v>7686</v>
       </c>
-      <c r="O5" s="39">
-        <v>0</v>
-      </c>
-      <c r="P5" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="39">
-        <v>0</v>
-      </c>
-      <c r="R5" s="40">
-        <v>0</v>
-      </c>
-      <c r="S5" s="41">
+      <c r="O5" s="38">
+        <v>0</v>
+      </c>
+      <c r="P5" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>0</v>
+      </c>
+      <c r="R5" s="39">
+        <v>0</v>
+      </c>
+      <c r="S5" s="17">
         <v>12086</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="U5" s="40">
-        <v>0</v>
-      </c>
-      <c r="V5" s="43">
-        <v>0</v>
-      </c>
-      <c r="W5" s="44">
-        <v>0</v>
-      </c>
-      <c r="X5" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="41">
+      <c r="U5" s="39">
+        <v>0</v>
+      </c>
+      <c r="V5" s="12">
+        <v>0</v>
+      </c>
+      <c r="W5" s="40">
+        <v>0</v>
+      </c>
+      <c r="X5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="17">
         <v>10986</v>
       </c>
-      <c r="AQ5" s="42" t="s">
+      <c r="AQ5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="AR5" s="41">
+      <c r="AR5" s="17">
         <v>14286</v>
       </c>
-      <c r="AS5" s="47" t="s">
+      <c r="AS5" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="AT5" s="48" t="s">
+      <c r="AT5" s="44" t="s">
         <v>75</v>
       </c>
       <c r="AU5" s="12" t="s">
@@ -1892,31 +1871,31 @@
       <c r="AV5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AW5" s="41">
+      <c r="AW5" s="17">
         <v>13186</v>
       </c>
-      <c r="AX5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="46">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="45">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="46">
+      <c r="AX5" s="42">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="41">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="42">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="41">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="42">
         <v>0</v>
       </c>
     </row>
@@ -1924,172 +1903,172 @@
       <c r="A6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="49">
-        <v>0</v>
-      </c>
-      <c r="C6" s="50">
-        <v>0</v>
-      </c>
-      <c r="D6" s="50">
-        <v>0</v>
-      </c>
-      <c r="E6" s="50">
-        <v>0</v>
-      </c>
-      <c r="F6" s="50">
-        <v>0</v>
-      </c>
-      <c r="G6" s="50">
-        <v>0</v>
-      </c>
-      <c r="H6" s="50">
-        <v>0</v>
-      </c>
-      <c r="I6" s="49">
-        <v>0</v>
-      </c>
-      <c r="J6" s="50">
-        <v>0</v>
-      </c>
-      <c r="K6" s="50">
-        <v>0</v>
-      </c>
-      <c r="L6" s="51">
+      <c r="B6" s="45">
+        <v>0</v>
+      </c>
+      <c r="C6" s="46">
+        <v>0</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46">
+        <v>0</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+      <c r="J6" s="46">
+        <v>0</v>
+      </c>
+      <c r="K6" s="46">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
         <v>14108</v>
       </c>
-      <c r="M6" s="49">
-        <v>0</v>
-      </c>
-      <c r="N6" s="51">
+      <c r="M6" s="45">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
         <v>12815</v>
       </c>
-      <c r="O6" s="49">
-        <v>0</v>
-      </c>
-      <c r="P6" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="49">
-        <v>0</v>
-      </c>
-      <c r="R6" s="50">
-        <v>0</v>
-      </c>
-      <c r="S6" s="50">
-        <v>0</v>
-      </c>
-      <c r="T6" s="52">
-        <v>0</v>
-      </c>
-      <c r="U6" s="53">
-        <v>0</v>
-      </c>
-      <c r="V6" s="52">
-        <v>0</v>
-      </c>
-      <c r="W6" s="53">
-        <v>0</v>
-      </c>
-      <c r="X6" s="52">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="51">
+      <c r="O6" s="45">
+        <v>0</v>
+      </c>
+      <c r="P6" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>0</v>
+      </c>
+      <c r="R6" s="46">
+        <v>0</v>
+      </c>
+      <c r="S6" s="46">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>0</v>
+      </c>
+      <c r="U6" s="47">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0</v>
+      </c>
+      <c r="W6" s="47">
+        <v>0</v>
+      </c>
+      <c r="X6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="18">
         <v>11538</v>
       </c>
-      <c r="AA6" s="51">
+      <c r="AA6" s="18">
         <v>10262</v>
       </c>
-      <c r="AB6" s="50">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="50">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="50">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="51">
+      <c r="AB6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="18">
         <v>8969</v>
       </c>
-      <c r="AH6" s="51">
+      <c r="AH6" s="18">
         <v>7692</v>
       </c>
-      <c r="AI6" s="50">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="51">
+      <c r="AI6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="18">
         <v>6415</v>
       </c>
-      <c r="AK6" s="50">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="51">
+      <c r="AK6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
         <v>5123</v>
       </c>
-      <c r="AM6" s="50">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="51">
+      <c r="AM6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="18">
         <v>3846</v>
       </c>
-      <c r="AP6" s="50">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="50">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="50">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="51">
+      <c r="AP6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="18">
         <v>15385</v>
       </c>
-      <c r="AW6" s="49">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="51">
+      <c r="AW6" s="45">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="18">
         <v>2569</v>
       </c>
-      <c r="AY6" s="51">
+      <c r="AY6" s="18">
         <v>1277</v>
       </c>
-      <c r="AZ6" s="50">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="49">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="49">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="49">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="49">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="50">
+      <c r="AZ6" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="45">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="46">
         <v>0</v>
       </c>
     </row>
@@ -2097,172 +2076,172 @@
       <c r="A7" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>9886</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>8786</v>
       </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="15">
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
         <v>7686</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>14286</v>
       </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7" s="54" t="s">
+      <c r="H7" s="20">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <v>0</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <v>13186</v>
       </c>
-      <c r="N7" s="14">
-        <v>0</v>
-      </c>
-      <c r="O7" s="14">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="14">
-        <v>0</v>
-      </c>
-      <c r="R7" s="54" t="s">
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
+      <c r="O7" s="19">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="19">
+        <v>0</v>
+      </c>
+      <c r="R7" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="S7" s="16">
-        <v>0</v>
-      </c>
-      <c r="T7" s="17">
-        <v>0</v>
-      </c>
-      <c r="U7" s="18">
-        <v>0</v>
-      </c>
-      <c r="V7" s="15">
+      <c r="S7" s="20">
+        <v>0</v>
+      </c>
+      <c r="T7" s="11">
+        <v>0</v>
+      </c>
+      <c r="U7" s="21">
+        <v>0</v>
+      </c>
+      <c r="V7" s="14">
         <v>12086</v>
       </c>
-      <c r="W7" s="18">
-        <v>0</v>
-      </c>
-      <c r="X7" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="15">
+      <c r="W7" s="21">
+        <v>0</v>
+      </c>
+      <c r="X7" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="14">
         <v>10986</v>
       </c>
-      <c r="AA7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="55" t="s">
+      <c r="AA7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="AI7" s="16">
+      <c r="AI7" s="20">
         <v>0</v>
       </c>
       <c r="AJ7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AK7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="14">
+      <c r="AK7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="19">
         <v>0</v>
       </c>
       <c r="AZ7" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="BA7" s="14" t="s">
+      <c r="BA7" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="BB7" s="14">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="14">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="14">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="16">
+      <c r="BB7" s="19">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="19">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="19">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="20">
         <v>0</v>
       </c>
     </row>
@@ -2270,172 +2249,172 @@
       <c r="A8" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="21">
-        <v>0</v>
-      </c>
-      <c r="C8" s="22">
-        <v>0</v>
-      </c>
-      <c r="D8" s="22">
-        <v>0</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="B8" s="24">
+        <v>0</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0</v>
+      </c>
+      <c r="E8" s="15">
         <v>8969</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="15">
         <v>6415</v>
       </c>
-      <c r="G8" s="22">
-        <v>0</v>
-      </c>
-      <c r="H8" s="25">
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
         <v>7692</v>
       </c>
-      <c r="I8" s="21">
-        <v>0</v>
-      </c>
-      <c r="J8" s="22">
-        <v>0</v>
-      </c>
-      <c r="K8" s="25">
+      <c r="I8" s="24">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
+        <v>0</v>
+      </c>
+      <c r="K8" s="15">
         <v>10262</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="15">
         <v>5123</v>
       </c>
-      <c r="M8" s="21">
-        <v>0</v>
-      </c>
-      <c r="N8" s="25">
+      <c r="M8" s="24">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15">
         <v>3846</v>
       </c>
-      <c r="O8" s="21">
-        <v>0</v>
-      </c>
-      <c r="P8" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>0</v>
-      </c>
-      <c r="R8" s="22">
-        <v>0</v>
-      </c>
-      <c r="S8" s="22">
-        <v>0</v>
-      </c>
-      <c r="T8" s="26">
-        <v>0</v>
-      </c>
-      <c r="U8" s="27">
-        <v>0</v>
-      </c>
-      <c r="V8" s="26">
-        <v>0</v>
-      </c>
-      <c r="W8" s="25">
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="24">
+        <v>0</v>
+      </c>
+      <c r="R8" s="25">
+        <v>0</v>
+      </c>
+      <c r="S8" s="25">
+        <v>0</v>
+      </c>
+      <c r="T8" s="27">
+        <v>0</v>
+      </c>
+      <c r="U8" s="28">
+        <v>0</v>
+      </c>
+      <c r="V8" s="27">
+        <v>0</v>
+      </c>
+      <c r="W8" s="15">
         <v>15385</v>
       </c>
-      <c r="X8" s="25">
+      <c r="X8" s="15">
         <v>14108</v>
       </c>
-      <c r="Y8" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="25">
+      <c r="Y8" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="15">
         <v>2569</v>
       </c>
-      <c r="AA8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="25">
+      <c r="AA8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="15">
         <v>11538</v>
       </c>
-      <c r="AI8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="22">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="25">
+      <c r="AI8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="24">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="15">
         <v>12815</v>
       </c>
-      <c r="AZ8" s="22">
-        <v>0</v>
-      </c>
-      <c r="BA8" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="25">
+      <c r="AZ8" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="24">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="24">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="24">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="24">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="15">
         <v>1277</v>
       </c>
     </row>
@@ -2443,7 +2422,7 @@
       <c r="A9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <v>0</v>
       </c>
       <c r="C9" s="31">
@@ -2452,7 +2431,7 @@
       <c r="D9" s="31">
         <v>0</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="31">
@@ -2461,34 +2440,34 @@
       <c r="G9" s="31">
         <v>0</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="33">
         <v>0</v>
       </c>
       <c r="J9" s="31">
         <v>0</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="K9" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="L9" s="34">
-        <v>0</v>
-      </c>
-      <c r="M9" s="34">
-        <v>0</v>
-      </c>
-      <c r="N9" s="34">
-        <v>0</v>
-      </c>
-      <c r="O9" s="34">
+      <c r="L9" s="33">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="33">
         <v>0</v>
       </c>
       <c r="P9" s="31">
         <v>0</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="33">
         <v>0</v>
       </c>
       <c r="R9" s="31">
@@ -2497,28 +2476,28 @@
       <c r="S9" s="31">
         <v>0</v>
       </c>
-      <c r="T9" s="35">
-        <v>0</v>
-      </c>
-      <c r="U9" s="36">
-        <v>0</v>
-      </c>
-      <c r="V9" s="35">
-        <v>0</v>
-      </c>
-      <c r="W9" s="36">
-        <v>0</v>
-      </c>
-      <c r="X9" s="35">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="33" t="s">
+      <c r="T9" s="34">
+        <v>0</v>
+      </c>
+      <c r="U9" s="35">
+        <v>0</v>
+      </c>
+      <c r="V9" s="34">
+        <v>0</v>
+      </c>
+      <c r="W9" s="35">
+        <v>0</v>
+      </c>
+      <c r="X9" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9" s="33">
         <v>0</v>
       </c>
       <c r="AB9" s="31">
@@ -2527,37 +2506,37 @@
       <c r="AC9" s="31">
         <v>0</v>
       </c>
-      <c r="AD9" s="34">
+      <c r="AD9" s="33">
         <v>0</v>
       </c>
       <c r="AE9" s="31">
         <v>0</v>
       </c>
-      <c r="AF9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="35" t="s">
+      <c r="AF9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="AH9" s="33" t="s">
+      <c r="AH9" s="16" t="s">
         <v>83</v>
       </c>
       <c r="AI9" s="31">
         <v>0</v>
       </c>
-      <c r="AJ9" s="33" t="s">
+      <c r="AJ9" s="16" t="s">
         <v>86</v>
       </c>
       <c r="AK9" s="31">
         <v>0</v>
       </c>
-      <c r="AL9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="30" t="s">
+      <c r="AL9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AN9" s="30" t="s">
+      <c r="AN9" s="16" t="s">
         <v>80</v>
       </c>
       <c r="AO9" s="31">
@@ -2566,46 +2545,46 @@
       <c r="AP9" s="31">
         <v>0</v>
       </c>
-      <c r="AQ9" s="34">
+      <c r="AQ9" s="33">
         <v>0</v>
       </c>
       <c r="AR9" s="31">
         <v>0</v>
       </c>
-      <c r="AS9" s="34">
+      <c r="AS9" s="33">
         <v>0</v>
       </c>
       <c r="AT9" s="31">
         <v>0</v>
       </c>
-      <c r="AU9" s="34">
+      <c r="AU9" s="33">
         <v>0</v>
       </c>
       <c r="AV9" s="31">
         <v>0</v>
       </c>
-      <c r="AW9" s="34">
+      <c r="AW9" s="33">
         <v>0</v>
       </c>
       <c r="AX9" s="31">
         <v>0</v>
       </c>
-      <c r="AY9" s="34">
+      <c r="AY9" s="33">
         <v>0</v>
       </c>
       <c r="AZ9" s="31">
         <v>0</v>
       </c>
-      <c r="BA9" s="34">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="34">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="34">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="34">
+      <c r="BA9" s="33">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="33">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="33">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="33">
         <v>0</v>
       </c>
       <c r="BE9" s="31">
@@ -2616,172 +2595,172 @@
       <c r="A10" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="38">
         <v>0</v>
       </c>
       <c r="C10" s="12">
         <v>22222</v>
       </c>
-      <c r="D10" s="40">
-        <v>0</v>
-      </c>
-      <c r="E10" s="40">
-        <v>0</v>
-      </c>
-      <c r="F10" s="40">
-        <v>0</v>
-      </c>
-      <c r="G10" s="41">
+      <c r="D10" s="39">
+        <v>0</v>
+      </c>
+      <c r="E10" s="39">
+        <v>0</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0</v>
+      </c>
+      <c r="G10" s="17">
         <v>13889</v>
       </c>
-      <c r="H10" s="40">
-        <v>0</v>
-      </c>
-      <c r="I10" s="39">
-        <v>0</v>
-      </c>
-      <c r="J10" s="40">
-        <v>0</v>
-      </c>
-      <c r="K10" s="40">
-        <v>0</v>
-      </c>
-      <c r="L10" s="41">
+      <c r="H10" s="39">
+        <v>0</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0</v>
+      </c>
+      <c r="J10" s="39">
+        <v>0</v>
+      </c>
+      <c r="K10" s="39">
+        <v>0</v>
+      </c>
+      <c r="L10" s="17">
         <v>11111</v>
       </c>
-      <c r="M10" s="39">
-        <v>0</v>
-      </c>
-      <c r="N10" s="39">
-        <v>0</v>
-      </c>
-      <c r="O10" s="39">
-        <v>0</v>
-      </c>
-      <c r="P10" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="39">
-        <v>0</v>
-      </c>
-      <c r="R10" s="41">
+      <c r="M10" s="38">
+        <v>0</v>
+      </c>
+      <c r="N10" s="38">
+        <v>0</v>
+      </c>
+      <c r="O10" s="38">
+        <v>0</v>
+      </c>
+      <c r="P10" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="38">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17">
         <v>8333</v>
       </c>
-      <c r="S10" s="40">
-        <v>0</v>
-      </c>
-      <c r="T10" s="43">
-        <v>0</v>
-      </c>
-      <c r="U10" s="44">
-        <v>0</v>
-      </c>
-      <c r="V10" s="41">
+      <c r="S10" s="39">
+        <v>0</v>
+      </c>
+      <c r="T10" s="12">
+        <v>0</v>
+      </c>
+      <c r="U10" s="40">
+        <v>0</v>
+      </c>
+      <c r="V10" s="17">
         <v>19444</v>
       </c>
-      <c r="W10" s="44">
-        <v>0</v>
-      </c>
-      <c r="X10" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="44">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="41">
+      <c r="W10" s="40">
+        <v>0</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="17">
         <v>16667</v>
       </c>
-      <c r="AA10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="41">
+      <c r="AA10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="17">
         <v>5556</v>
       </c>
-      <c r="AH10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="40">
+      <c r="AH10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="39">
         <v>0</v>
       </c>
       <c r="AJ10" s="12">
         <v>2778</v>
       </c>
-      <c r="AK10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="40">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="39">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="39">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="39">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="39">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="39">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="40">
+      <c r="AK10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="39">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="39">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2789,172 +2768,172 @@
       <c r="A11" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B11" s="51">
+      <c r="B11" s="18">
         <v>13186</v>
       </c>
-      <c r="C11" s="51">
+      <c r="C11" s="18">
         <v>8786</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="18">
         <v>12086</v>
       </c>
-      <c r="E11" s="50">
-        <v>0</v>
-      </c>
-      <c r="F11" s="50">
-        <v>0</v>
-      </c>
-      <c r="G11" s="50">
-        <v>0</v>
-      </c>
-      <c r="H11" s="50">
-        <v>0</v>
-      </c>
-      <c r="I11" s="51">
+      <c r="E11" s="46">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46">
+        <v>0</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
         <v>14286</v>
       </c>
-      <c r="J11" s="50">
-        <v>0</v>
-      </c>
-      <c r="K11" s="51">
+      <c r="J11" s="46">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
         <v>10986</v>
       </c>
-      <c r="L11" s="49">
-        <v>0</v>
-      </c>
-      <c r="M11" s="49">
-        <v>0</v>
-      </c>
-      <c r="N11" s="49">
-        <v>0</v>
-      </c>
-      <c r="O11" s="49">
-        <v>0</v>
-      </c>
-      <c r="P11" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="49">
-        <v>0</v>
-      </c>
-      <c r="R11" s="50">
-        <v>0</v>
-      </c>
-      <c r="S11" s="50">
-        <v>0</v>
-      </c>
-      <c r="T11" s="52">
-        <v>0</v>
-      </c>
-      <c r="U11" s="53">
-        <v>0</v>
-      </c>
-      <c r="V11" s="52">
-        <v>0</v>
-      </c>
-      <c r="W11" s="53">
-        <v>0</v>
-      </c>
-      <c r="X11" s="52">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="51">
+      <c r="L11" s="45">
+        <v>0</v>
+      </c>
+      <c r="M11" s="45">
+        <v>0</v>
+      </c>
+      <c r="N11" s="45">
+        <v>0</v>
+      </c>
+      <c r="O11" s="45">
+        <v>0</v>
+      </c>
+      <c r="P11" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>0</v>
+      </c>
+      <c r="R11" s="46">
+        <v>0</v>
+      </c>
+      <c r="S11" s="46">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="47">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0</v>
+      </c>
+      <c r="W11" s="47">
+        <v>0</v>
+      </c>
+      <c r="X11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="18">
         <v>9886</v>
       </c>
-      <c r="Z11" s="56">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="51">
+      <c r="Z11" s="49">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="18">
         <v>7686</v>
       </c>
-      <c r="AG11" s="52" t="s">
+      <c r="AG11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AH11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="52" t="s">
+      <c r="AH11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AO11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="50">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="49">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="57" t="s">
+      <c r="AO11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="BA11" s="49">
+      <c r="BA11" s="45">
         <v>0</v>
       </c>
       <c r="BB11" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="BC11" s="49" t="s">
+      <c r="BC11" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="BD11" s="49" t="s">
+      <c r="BD11" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="BE11" s="50">
+      <c r="BE11" s="46">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/files/Weights.xlsx
+++ b/src/main/resources/files/Weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalia/Documents/CEU/Asignaturas/SistemasSoporte/AnemiaDSS/src/main/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524041E9-D760-A046-987B-3FA4247D34C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F1C7D9-8357-C049-B34F-556D88B498A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:BE11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/files/Weights.xlsx
+++ b/src/main/resources/files/Weights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalia/Documents/CEU/Asignaturas/SistemasSoporte/AnemiaDSS/src/main/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F1C7D9-8357-C049-B34F-556D88B498A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551DE633-602F-7C42-A78A-9F7AB4B4D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,6 @@
     <t>Craneal balloning</t>
   </si>
   <si>
-    <t xml:space="preserve">Aplastic crisis </t>
-  </si>
-  <si>
     <t>Bacterial infectons</t>
   </si>
   <si>
@@ -327,6 +324,9 @@
   </si>
   <si>
     <t>Chronic_disease_anemia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplasic crisis </t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AS1" sqref="AS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1168,51 +1168,51 @@
         <v>43</v>
       </c>
       <c r="AS1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AT1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="AU1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="AW1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="4" t="s">
+      <c r="BA1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="6" t="s">
+      <c r="BE1" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="14">
         <v>10838</v>
@@ -1284,22 +1284,22 @@
         <v>0</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AA2" s="14">
         <v>11663</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC2" s="11">
         <v>4163</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AF2" s="14">
         <v>6663</v>
@@ -1311,7 +1311,7 @@
         <v>8338</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AJ2" s="14">
         <v>9162</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="3" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="24">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="25">
         <v>0</v>
@@ -1433,31 +1433,31 @@
         <v>0</v>
       </c>
       <c r="R3" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="25">
+        <v>0</v>
+      </c>
+      <c r="T3" s="27">
+        <v>0</v>
+      </c>
+      <c r="U3" s="28">
+        <v>0</v>
+      </c>
+      <c r="V3" s="27">
+        <v>0</v>
+      </c>
+      <c r="W3" s="28">
+        <v>0</v>
+      </c>
+      <c r="X3" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="15" t="s">
         <v>65</v>
-      </c>
-      <c r="S3" s="25">
-        <v>0</v>
-      </c>
-      <c r="T3" s="27">
-        <v>0</v>
-      </c>
-      <c r="U3" s="28">
-        <v>0</v>
-      </c>
-      <c r="V3" s="27">
-        <v>0</v>
-      </c>
-      <c r="W3" s="28">
-        <v>0</v>
-      </c>
-      <c r="X3" s="27">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="15" t="s">
-        <v>66</v>
       </c>
       <c r="AA3" s="15">
         <v>3813</v>
@@ -1490,7 +1490,7 @@
         <v>1907</v>
       </c>
       <c r="AK3" s="27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL3" s="30">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>11427</v>
       </c>
       <c r="AN3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AO3" s="29">
         <v>0</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="4" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="16">
         <v>7143</v>
@@ -1588,7 +1588,7 @@
         <v>4286</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M4" s="16">
         <v>3333</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="16">
         <v>5714</v>
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="Z4" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA4" s="36">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>1429</v>
       </c>
       <c r="AS4" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AT4" s="37">
         <v>0</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="5" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="38">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>12086</v>
       </c>
       <c r="T5" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U5" s="39">
         <v>0</v>
@@ -1854,22 +1854,22 @@
         <v>10986</v>
       </c>
       <c r="AQ5" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AR5" s="17">
         <v>14286</v>
       </c>
       <c r="AS5" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT5" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="AT5" s="44" t="s">
+      <c r="AU5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AU5" s="12" t="s">
+      <c r="AV5" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="AV5" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="AW5" s="17">
         <v>13186</v>
@@ -1901,7 +1901,7 @@
     </row>
     <row r="6" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" s="45">
         <v>0</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="7" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="14">
         <v>9886</v>
@@ -2107,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M7" s="14">
         <v>13186</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S7" s="20">
         <v>0</v>
@@ -2173,64 +2173,64 @@
         <v>0</v>
       </c>
       <c r="AH7" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AI7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="11" t="s">
+      <c r="AK7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="20">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AK7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="20">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="11" t="s">
+      <c r="BA7" s="19" t="s">
         <v>76</v>
-      </c>
-      <c r="BA7" s="19" t="s">
-        <v>77</v>
       </c>
       <c r="BB7" s="19">
         <v>0</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="8" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="24">
         <v>0</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="9" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="33">
         <v>0</v>
@@ -2432,112 +2432,112 @@
         <v>0</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="33">
+        <v>0</v>
+      </c>
+      <c r="M9" s="33">
+        <v>0</v>
+      </c>
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="O9" s="33">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>0</v>
+      </c>
+      <c r="R9" s="31">
+        <v>0</v>
+      </c>
+      <c r="S9" s="31">
+        <v>0</v>
+      </c>
+      <c r="T9" s="34">
+        <v>0</v>
+      </c>
+      <c r="U9" s="35">
+        <v>0</v>
+      </c>
+      <c r="V9" s="34">
+        <v>0</v>
+      </c>
+      <c r="W9" s="35">
+        <v>0</v>
+      </c>
+      <c r="X9" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="31">
-        <v>0</v>
-      </c>
-      <c r="G9" s="31">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16" t="s">
+      <c r="AA9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH9" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="33">
-        <v>0</v>
-      </c>
-      <c r="J9" s="31">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16" t="s">
+      <c r="AI9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK9" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN9" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="L9" s="33">
-        <v>0</v>
-      </c>
-      <c r="M9" s="33">
-        <v>0</v>
-      </c>
-      <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="O9" s="33">
-        <v>0</v>
-      </c>
-      <c r="P9" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="33">
-        <v>0</v>
-      </c>
-      <c r="R9" s="31">
-        <v>0</v>
-      </c>
-      <c r="S9" s="31">
-        <v>0</v>
-      </c>
-      <c r="T9" s="34">
-        <v>0</v>
-      </c>
-      <c r="U9" s="35">
-        <v>0</v>
-      </c>
-      <c r="V9" s="34">
-        <v>0</v>
-      </c>
-      <c r="W9" s="35">
-        <v>0</v>
-      </c>
-      <c r="X9" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="35">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA9" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="33">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="33">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH9" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="33">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN9" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="AO9" s="31">
         <v>0</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="10" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="38">
         <v>0</v>
@@ -2766,7 +2766,7 @@
     </row>
     <row r="11" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="18">
         <v>13186</v>
@@ -2862,76 +2862,76 @@
         <v>7686</v>
       </c>
       <c r="AG11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AH11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="13" t="s">
+      <c r="AO11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="45">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="AO11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="45">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="50" t="s">
+      <c r="BA11" s="45">
+        <v>0</v>
+      </c>
+      <c r="BB11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="BA11" s="45">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="13" t="s">
+      <c r="BC11" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="BC11" s="45" t="s">
+      <c r="BD11" s="45" t="s">
         <v>76</v>
-      </c>
-      <c r="BD11" s="45" t="s">
-        <v>77</v>
       </c>
       <c r="BE11" s="46">
         <v>0</v>

--- a/src/main/resources/files/Weights.xlsx
+++ b/src/main/resources/files/Weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalia/Documents/CEU/Asignaturas/SistemasSoporte/AnemiaDSS/src/main/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551DE633-602F-7C42-A78A-9F7AB4B4D84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDB9558-23F6-1948-BBA5-0D2BF27917BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AS1" sqref="AS1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:BE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/files/Weights.xlsx
+++ b/src/main/resources/files/Weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalia/Documents/CEU/Asignaturas/SistemasSoporte/AnemiaDSS/src/main/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45663992-F4AA-5248-A307-ACE90B6EE27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA090A5-A708-6744-9E87-909332D160D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>ANEMIA/SYMPTOMS</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>Polycythemia_FEMALE</t>
+  </si>
+  <si>
+    <t>Anemic_syndrome_FEMALE</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
   <dimension ref="A1:BE22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1370,7 +1373,7 @@
     </row>
     <row r="3" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="47" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B3" s="10">
         <v>12.5</v>

--- a/src/main/resources/files/Weights.xlsx
+++ b/src/main/resources/files/Weights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/natalia/Documents/CEU/Asignaturas/SistemasSoporte/AnemiaDSS/src/main/resources/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\IdeaProjects\AnemiaDSS\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA090A5-A708-6744-9E87-909332D160D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60D768A-CA78-4410-A8F4-09030076AD1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>ANEMIA/SYMPTOMS</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Hematocrit/PVM</t>
   </si>
   <si>
-    <t>Plaquets</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anisocytosis coefficient </t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>Leukocytes</t>
   </si>
   <si>
-    <t>Increased  blood volume</t>
-  </si>
-  <si>
     <t>Decreased blood volume</t>
   </si>
   <si>
@@ -80,9 +74,6 @@
     <t>MCHC</t>
   </si>
   <si>
-    <t>Hemoglobinuria</t>
-  </si>
-  <si>
     <t>Hb in urine</t>
   </si>
   <si>
@@ -92,9 +83,6 @@
     <t>Fe</t>
   </si>
   <si>
-    <t xml:space="preserve">Bilirubine </t>
-  </si>
-  <si>
     <t xml:space="preserve">LDH </t>
   </si>
   <si>
@@ -167,30 +155,18 @@
     <t>Splenomegaly</t>
   </si>
   <si>
-    <t>Craneal balloning</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aplastic crisis </t>
   </si>
   <si>
-    <t>Bacterial infectons</t>
-  </si>
-  <si>
     <t>Osteoporosis</t>
   </si>
   <si>
     <t>Bone deformations</t>
   </si>
   <si>
-    <t xml:space="preserve">Maxilar bone hyperplasia </t>
-  </si>
-  <si>
     <t>Brittle nails</t>
   </si>
   <si>
-    <t>Tongue inflamation</t>
-  </si>
-  <si>
     <t>Diarrhea</t>
   </si>
   <si>
@@ -248,12 +224,6 @@
     <t>Megaloblastic_anemia_FEMALE</t>
   </si>
   <si>
-    <t>Aplasic_anemia_MALE</t>
-  </si>
-  <si>
-    <t>Aplasic_anemia_FEMALE</t>
-  </si>
-  <si>
     <t>Chronic_disease_anemia_MALE</t>
   </si>
   <si>
@@ -267,13 +237,40 @@
   </si>
   <si>
     <t>Anemic_syndrome_FEMALE</t>
+  </si>
+  <si>
+    <t>Aplastic_anemia_MALE</t>
+  </si>
+  <si>
+    <t>Aplastic_anemia_FEMALE</t>
+  </si>
+  <si>
+    <t>Platelets</t>
+  </si>
+  <si>
+    <t>Increased blood volume</t>
+  </si>
+  <si>
+    <t>Bilirubin</t>
+  </si>
+  <si>
+    <t>Cranial ballooning</t>
+  </si>
+  <si>
+    <t>Bacterial infections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxila bone hyperplasia </t>
+  </si>
+  <si>
+    <t>Tongue inflammation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,19 +1010,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE22"/>
+  <dimension ref="A1:BD22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.1640625" customWidth="1"/>
-    <col min="2" max="57" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="56" width="35.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="25.05" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1039,168 +1036,165 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="U1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Z1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AC1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AD1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AE1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AH1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AL1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AN1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AP1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AQ1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AU1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AV1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AW1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AX1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="8" t="s">
+      <c r="BA1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="8" t="s">
+      <c r="BC1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="BD1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:56" ht="25.05" customHeight="1">
+      <c r="A2" s="47" t="s">
         <v>49</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47" t="s">
-        <v>57</v>
       </c>
       <c r="B2" s="10">
         <v>12.5</v>
@@ -1241,118 +1235,118 @@
       <c r="N2" s="10">
         <v>0</v>
       </c>
-      <c r="O2" s="10">
-        <v>0</v>
-      </c>
-      <c r="P2" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="10">
+      <c r="O2" s="11">
+        <v>0</v>
+      </c>
+      <c r="P2" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="11">
         <v>0</v>
       </c>
       <c r="R2" s="11">
         <v>0</v>
       </c>
-      <c r="S2" s="11">
-        <v>0</v>
-      </c>
-      <c r="T2" s="12">
-        <v>0</v>
-      </c>
-      <c r="U2" s="13">
-        <v>0</v>
-      </c>
-      <c r="V2" s="12">
-        <v>0</v>
-      </c>
-      <c r="W2" s="13">
-        <v>0</v>
-      </c>
-      <c r="X2" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="13">
-        <v>0</v>
+      <c r="S2" s="12">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13">
+        <v>0</v>
+      </c>
+      <c r="U2" s="12">
+        <v>0</v>
+      </c>
+      <c r="V2" s="13">
+        <v>0</v>
+      </c>
+      <c r="W2" s="12">
+        <v>0</v>
+      </c>
+      <c r="X2" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="12">
+        <v>5</v>
       </c>
       <c r="Z2" s="12">
         <v>5</v>
       </c>
       <c r="AA2" s="12">
-        <v>5</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="AB2" s="12">
-        <v>0.83799999999999997</v>
+        <v>4.1630000000000003</v>
       </c>
       <c r="AC2" s="12">
-        <v>4.1630000000000003</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" s="12">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AE2" s="12">
-        <v>10</v>
+        <v>6.6630000000000003</v>
       </c>
       <c r="AF2" s="12">
-        <v>6.6630000000000003</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="AG2" s="12">
-        <v>3.3380000000000001</v>
+        <v>8.3379999999999992</v>
       </c>
       <c r="AH2" s="12">
-        <v>8.3379999999999992</v>
+        <v>2.5</v>
       </c>
       <c r="AI2" s="12">
-        <v>2.5</v>
+        <v>9.1620000000000008</v>
       </c>
       <c r="AJ2" s="12">
-        <v>9.1620000000000008</v>
+        <v>5.8380000000000001</v>
       </c>
       <c r="AK2" s="12">
-        <v>5.8380000000000001</v>
-      </c>
-      <c r="AL2" s="12">
         <v>1.663</v>
       </c>
-      <c r="AM2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="15">
+      <c r="AL2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="14">
         <v>0</v>
       </c>
       <c r="AO2" s="14">
         <v>0</v>
       </c>
-      <c r="AP2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AS2" s="15">
-        <v>0</v>
-      </c>
-      <c r="AT2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="14">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="15">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="14">
+      <c r="AP2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="15">
         <v>0</v>
       </c>
       <c r="BA2" s="15">
@@ -1364,16 +1358,13 @@
       <c r="BC2" s="15">
         <v>0</v>
       </c>
-      <c r="BD2" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="14">
+      <c r="BD2" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:56" ht="25.05" customHeight="1">
       <c r="A3" s="47" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10">
         <v>12.5</v>
@@ -1444,48 +1435,48 @@
       <c r="X3" s="45">
         <v>0</v>
       </c>
-      <c r="Y3" s="45">
-        <v>0</v>
+      <c r="Y3" s="12">
+        <v>5</v>
       </c>
       <c r="Z3" s="12">
         <v>5</v>
       </c>
       <c r="AA3" s="12">
-        <v>5</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="AB3" s="12">
-        <v>0.83799999999999997</v>
+        <v>4.1630000000000003</v>
       </c>
       <c r="AC3" s="12">
-        <v>4.1630000000000003</v>
+        <v>7.5</v>
       </c>
       <c r="AD3" s="12">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AE3" s="12">
-        <v>10</v>
+        <v>6.6630000000000003</v>
       </c>
       <c r="AF3" s="12">
-        <v>6.6630000000000003</v>
+        <v>3.3380000000000001</v>
       </c>
       <c r="AG3" s="12">
-        <v>3.3380000000000001</v>
+        <v>8.3379999999999992</v>
       </c>
       <c r="AH3" s="12">
-        <v>8.3379999999999992</v>
+        <v>2.5</v>
       </c>
       <c r="AI3" s="12">
-        <v>2.5</v>
+        <v>9.1620000000000008</v>
       </c>
       <c r="AJ3" s="12">
-        <v>9.1620000000000008</v>
+        <v>5.8380000000000001</v>
       </c>
       <c r="AK3" s="12">
-        <v>5.8380000000000001</v>
-      </c>
-      <c r="AL3" s="12">
         <v>1.663</v>
       </c>
+      <c r="AL3" s="14">
+        <v>0</v>
+      </c>
       <c r="AM3" s="14">
         <v>0</v>
       </c>
@@ -1540,13 +1531,10 @@
       <c r="BD3" s="14">
         <v>0</v>
       </c>
-      <c r="BE3" s="14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:56" ht="25.05" customHeight="1">
       <c r="A4" s="47" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B4" s="16">
         <v>0</v>
@@ -1587,118 +1575,118 @@
       <c r="N4" s="19">
         <v>13.333</v>
       </c>
-      <c r="O4" s="16">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>0</v>
-      </c>
-      <c r="R4" s="19">
+      <c r="O4" s="17">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="19">
         <v>5.72</v>
       </c>
-      <c r="S4" s="17">
-        <v>0</v>
-      </c>
-      <c r="T4" s="19">
-        <v>0</v>
-      </c>
-      <c r="U4" s="20">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19">
-        <v>0</v>
-      </c>
-      <c r="W4" s="20">
-        <v>0</v>
-      </c>
-      <c r="X4" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="20">
-        <v>0</v>
+      <c r="R4" s="17">
+        <v>0</v>
+      </c>
+      <c r="S4" s="19">
+        <v>0</v>
+      </c>
+      <c r="T4" s="20">
+        <v>0</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0</v>
+      </c>
+      <c r="V4" s="20">
+        <v>0</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0</v>
+      </c>
+      <c r="X4" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>4.76</v>
       </c>
       <c r="Z4" s="19">
-        <v>4.76</v>
-      </c>
-      <c r="AA4" s="19">
         <v>3.8130000000000002</v>
       </c>
+      <c r="AA4" s="21">
+        <v>0</v>
+      </c>
       <c r="AB4" s="21">
         <v>0</v>
       </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="19">
+      <c r="AC4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="19">
         <v>2.8530000000000002</v>
       </c>
-      <c r="AF4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="21">
-        <v>0</v>
+      <c r="AE4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="19">
+        <v>12.387</v>
       </c>
       <c r="AH4" s="19">
-        <v>12.387</v>
+        <v>0</v>
       </c>
       <c r="AI4" s="19">
-        <v>0</v>
+        <v>1.907</v>
       </c>
       <c r="AJ4" s="19">
-        <v>1.907</v>
-      </c>
-      <c r="AK4" s="19">
         <v>0.94699999999999995</v>
       </c>
-      <c r="AL4" s="22">
-        <v>0</v>
+      <c r="AK4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="19">
+        <v>11.427</v>
       </c>
       <c r="AM4" s="19">
-        <v>11.427</v>
-      </c>
-      <c r="AN4" s="19">
         <v>10.48</v>
       </c>
+      <c r="AN4" s="21">
+        <v>0</v>
+      </c>
       <c r="AO4" s="21">
         <v>0</v>
       </c>
-      <c r="AP4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="21">
+      <c r="AP4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="22">
         <v>0</v>
       </c>
       <c r="BA4" s="22">
@@ -1710,16 +1698,13 @@
       <c r="BC4" s="22">
         <v>0</v>
       </c>
-      <c r="BD4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="21">
+      <c r="BD4" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" ht="25.05" customHeight="1">
       <c r="A5" s="47" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B5" s="16">
         <v>0</v>
@@ -1756,10 +1741,10 @@
       <c r="P5" s="16">
         <v>0</v>
       </c>
-      <c r="Q5" s="16">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="16">
+        <v>0</v>
+      </c>
       <c r="S5" s="16">
         <v>0</v>
       </c>
@@ -1778,36 +1763,36 @@
       <c r="X5" s="16">
         <v>0</v>
       </c>
-      <c r="Y5" s="16">
-        <v>0</v>
-      </c>
+      <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
       <c r="AB5" s="16">
         <v>0</v>
       </c>
       <c r="AC5" s="16">
         <v>0</v>
       </c>
-      <c r="AD5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="16">
+        <v>0</v>
+      </c>
       <c r="AF5" s="16">
         <v>0</v>
       </c>
-      <c r="AG5" s="16">
-        <v>0</v>
-      </c>
+      <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="16">
-        <v>0</v>
-      </c>
+      <c r="AK5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="19"/>
       <c r="AM5" s="19"/>
-      <c r="AN5" s="19"/>
+      <c r="AN5" s="16">
+        <v>0</v>
+      </c>
       <c r="AO5" s="16">
         <v>0</v>
       </c>
@@ -1856,13 +1841,10 @@
       <c r="BD5" s="16">
         <v>0</v>
       </c>
-      <c r="BE5" s="16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:56" ht="25.05" customHeight="1">
       <c r="A6" s="47" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B6" s="26">
         <v>7.1429999999999998</v>
@@ -1903,118 +1885,118 @@
       <c r="N6" s="26">
         <v>2.8570000000000002</v>
       </c>
-      <c r="O6" s="25">
-        <v>0</v>
+      <c r="O6" s="26">
+        <v>6.19</v>
       </c>
       <c r="P6" s="26">
-        <v>6.19</v>
+        <v>5.7140000000000004</v>
       </c>
       <c r="Q6" s="26">
-        <v>5.7140000000000004</v>
+        <v>9.048</v>
       </c>
       <c r="R6" s="26">
-        <v>9.048</v>
+        <v>8.0950000000000006</v>
       </c>
       <c r="S6" s="26">
-        <v>8.0950000000000006</v>
+        <v>2.3809999999999998</v>
       </c>
       <c r="T6" s="26">
-        <v>2.3809999999999998</v>
+        <v>8.5709999999999997</v>
       </c>
       <c r="U6" s="26">
-        <v>8.5709999999999997</v>
-      </c>
-      <c r="V6" s="26">
-        <v>0</v>
-      </c>
-      <c r="W6" s="27">
-        <v>0</v>
-      </c>
-      <c r="X6" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="26">
+        <v>0</v>
+      </c>
+      <c r="V6" s="27">
+        <v>0</v>
+      </c>
+      <c r="W6" s="26">
+        <v>0</v>
+      </c>
+      <c r="X6" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="26">
         <v>0.47599999999999998</v>
       </c>
-      <c r="AA6" s="28">
+      <c r="Z6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="29">
         <v>0</v>
       </c>
       <c r="AB6" s="29">
         <v>0</v>
       </c>
-      <c r="AC6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="26">
+      <c r="AC6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="26">
         <v>1.905</v>
       </c>
-      <c r="AI6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="29">
-        <v>0</v>
+      <c r="AH6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="26">
+        <v>7.6189999999999998</v>
       </c>
       <c r="AP6" s="26">
-        <v>7.6189999999999998</v>
+        <v>9.5239999999999991</v>
       </c>
       <c r="AQ6" s="26">
-        <v>9.5239999999999991</v>
+        <v>1.429</v>
       </c>
       <c r="AR6" s="26">
-        <v>1.429</v>
-      </c>
-      <c r="AS6" s="26">
         <v>0.95199999999999996</v>
       </c>
-      <c r="AT6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="29">
+      <c r="AS6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="28">
         <v>0</v>
       </c>
       <c r="BA6" s="28">
@@ -2026,16 +2008,13 @@
       <c r="BC6" s="28">
         <v>0</v>
       </c>
-      <c r="BD6" s="28">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="29">
+      <c r="BD6" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="25.05" customHeight="1">
       <c r="A7" s="47" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B7" s="26">
         <v>7.1429999999999998</v>
@@ -2076,118 +2055,118 @@
       <c r="N7" s="26">
         <v>2.8570000000000002</v>
       </c>
-      <c r="O7" s="25">
-        <v>0</v>
+      <c r="O7" s="26">
+        <v>6.19</v>
       </c>
       <c r="P7" s="26">
-        <v>6.19</v>
+        <v>5.7140000000000004</v>
       </c>
       <c r="Q7" s="26">
-        <v>5.7140000000000004</v>
+        <v>9.048</v>
       </c>
       <c r="R7" s="26">
-        <v>9.048</v>
+        <v>8.0950000000000006</v>
       </c>
       <c r="S7" s="26">
-        <v>8.0950000000000006</v>
+        <v>2.3809999999999998</v>
       </c>
       <c r="T7" s="26">
-        <v>2.3809999999999998</v>
+        <v>8.5709999999999997</v>
       </c>
       <c r="U7" s="26">
-        <v>8.5709999999999997</v>
-      </c>
-      <c r="V7" s="26">
-        <v>0</v>
-      </c>
-      <c r="W7" s="27">
-        <v>0</v>
-      </c>
-      <c r="X7" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="26">
+        <v>0</v>
+      </c>
+      <c r="V7" s="27">
+        <v>0</v>
+      </c>
+      <c r="W7" s="26">
+        <v>0</v>
+      </c>
+      <c r="X7" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="26">
         <v>0.47599999999999998</v>
       </c>
-      <c r="AA7" s="28">
+      <c r="Z7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="29">
         <v>0</v>
       </c>
       <c r="AB7" s="29">
         <v>0</v>
       </c>
-      <c r="AC7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="26">
+      <c r="AC7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="26">
         <v>1.905</v>
       </c>
-      <c r="AI7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="29">
-        <v>0</v>
+      <c r="AH7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="26">
+        <v>7.6189999999999998</v>
       </c>
       <c r="AP7" s="26">
-        <v>7.6189999999999998</v>
+        <v>9.5239999999999991</v>
       </c>
       <c r="AQ7" s="26">
-        <v>9.5239999999999991</v>
+        <v>1.429</v>
       </c>
       <c r="AR7" s="26">
-        <v>1.429</v>
-      </c>
-      <c r="AS7" s="26">
         <v>0.95199999999999996</v>
       </c>
-      <c r="AT7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="29">
+      <c r="AS7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="28">
         <v>0</v>
       </c>
       <c r="BA7" s="28">
@@ -2199,16 +2178,13 @@
       <c r="BC7" s="28">
         <v>0</v>
       </c>
-      <c r="BD7" s="28">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="29">
+      <c r="BD7" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:56" ht="25.05" customHeight="1">
       <c r="A8" s="47" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B8" s="30">
         <v>0</v>
@@ -2249,118 +2225,118 @@
       <c r="N8" s="32">
         <v>7.6859999999999999</v>
       </c>
-      <c r="O8" s="30">
-        <v>0</v>
-      </c>
-      <c r="P8" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="30">
-        <v>0</v>
-      </c>
-      <c r="R8" s="31">
-        <v>0</v>
+      <c r="O8" s="31">
+        <v>0</v>
+      </c>
+      <c r="P8" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="31">
+        <v>0</v>
+      </c>
+      <c r="R8" s="32">
+        <v>12.086</v>
       </c>
       <c r="S8" s="32">
-        <v>12.086</v>
-      </c>
-      <c r="T8" s="32">
         <v>6.6</v>
       </c>
-      <c r="U8" s="31">
-        <v>0</v>
-      </c>
-      <c r="V8" s="32">
-        <v>0</v>
-      </c>
-      <c r="W8" s="33">
-        <v>0</v>
-      </c>
-      <c r="X8" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="33">
+      <c r="T8" s="31">
+        <v>0</v>
+      </c>
+      <c r="U8" s="32">
+        <v>0</v>
+      </c>
+      <c r="V8" s="33">
+        <v>0</v>
+      </c>
+      <c r="W8" s="32">
+        <v>0</v>
+      </c>
+      <c r="X8" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="34">
         <v>0</v>
       </c>
       <c r="Z8" s="34">
         <v>0</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA8" s="35">
         <v>0</v>
       </c>
       <c r="AB8" s="35">
         <v>0</v>
       </c>
-      <c r="AC8" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="35">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="35">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="35">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="35">
-        <v>0</v>
+      <c r="AC8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="32">
+        <v>10.986000000000001</v>
       </c>
       <c r="AP8" s="32">
-        <v>10.986000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="AQ8" s="32">
-        <v>5.5</v>
-      </c>
-      <c r="AR8" s="32">
         <v>14.286</v>
       </c>
+      <c r="AR8" s="36">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="AS8" s="36">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AT8" s="36">
         <v>3.3</v>
       </c>
+      <c r="AT8" s="32">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="AU8" s="32">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV8" s="32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AW8" s="32">
         <v>13.186</v>
       </c>
-      <c r="AX8" s="35">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="35">
+      <c r="AW8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="34">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="35">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="34">
         <v>0</v>
       </c>
       <c r="BA8" s="34">
@@ -2372,16 +2348,13 @@
       <c r="BC8" s="34">
         <v>0</v>
       </c>
-      <c r="BD8" s="34">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="35">
+      <c r="BD8" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:56" ht="25.05" customHeight="1">
       <c r="A9" s="47" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B9" s="30">
         <v>0</v>
@@ -2422,118 +2395,118 @@
       <c r="N9" s="32">
         <v>7.6859999999999999</v>
       </c>
-      <c r="O9" s="30">
-        <v>0</v>
-      </c>
-      <c r="P9" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="30">
-        <v>0</v>
-      </c>
-      <c r="R9" s="31">
-        <v>0</v>
+      <c r="O9" s="31">
+        <v>0</v>
+      </c>
+      <c r="P9" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>0</v>
+      </c>
+      <c r="R9" s="32">
+        <v>12.086</v>
       </c>
       <c r="S9" s="32">
-        <v>12.086</v>
-      </c>
-      <c r="T9" s="32">
         <v>6.6</v>
       </c>
-      <c r="U9" s="31">
-        <v>0</v>
-      </c>
-      <c r="V9" s="32">
-        <v>0</v>
-      </c>
-      <c r="W9" s="33">
-        <v>0</v>
-      </c>
-      <c r="X9" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="33">
+      <c r="T9" s="31">
+        <v>0</v>
+      </c>
+      <c r="U9" s="32">
+        <v>0</v>
+      </c>
+      <c r="V9" s="33">
+        <v>0</v>
+      </c>
+      <c r="W9" s="32">
+        <v>0</v>
+      </c>
+      <c r="X9" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="34">
         <v>0</v>
       </c>
       <c r="Z9" s="34">
         <v>0</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9" s="35">
         <v>0</v>
       </c>
       <c r="AB9" s="35">
         <v>0</v>
       </c>
-      <c r="AC9" s="35">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="35">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="35">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="35">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="35">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="35">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="35">
-        <v>0</v>
+      <c r="AC9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="32">
+        <v>10.986000000000001</v>
       </c>
       <c r="AP9" s="32">
-        <v>10.986000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="AQ9" s="32">
-        <v>5.5</v>
-      </c>
-      <c r="AR9" s="32">
         <v>14.286</v>
       </c>
+      <c r="AR9" s="36">
+        <v>4.4000000000000004</v>
+      </c>
       <c r="AS9" s="36">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AT9" s="36">
         <v>3.3</v>
       </c>
+      <c r="AT9" s="32">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="AU9" s="32">
-        <v>2.2000000000000002</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV9" s="32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AW9" s="32">
         <v>13.186</v>
       </c>
-      <c r="AX9" s="35">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="34">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="35">
+      <c r="AW9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="34">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="35">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="34">
         <v>0</v>
       </c>
       <c r="BA9" s="34">
@@ -2545,16 +2518,13 @@
       <c r="BC9" s="34">
         <v>0</v>
       </c>
-      <c r="BD9" s="34">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="35">
+      <c r="BD9" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:56" ht="25.05" customHeight="1">
       <c r="A10" s="47" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B10" s="37">
         <v>0</v>
@@ -2595,118 +2565,118 @@
       <c r="N10" s="39">
         <v>12.815</v>
       </c>
-      <c r="O10" s="37">
-        <v>0</v>
-      </c>
-      <c r="P10" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="37">
+      <c r="O10" s="38">
+        <v>0</v>
+      </c>
+      <c r="P10" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="38">
         <v>0</v>
       </c>
       <c r="R10" s="38">
         <v>0</v>
       </c>
-      <c r="S10" s="38">
-        <v>0</v>
-      </c>
-      <c r="T10" s="39">
-        <v>0</v>
-      </c>
-      <c r="U10" s="40">
-        <v>0</v>
-      </c>
-      <c r="V10" s="39">
-        <v>0</v>
-      </c>
-      <c r="W10" s="40">
-        <v>0</v>
-      </c>
-      <c r="X10" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="40">
-        <v>0</v>
+      <c r="S10" s="39">
+        <v>0</v>
+      </c>
+      <c r="T10" s="40">
+        <v>0</v>
+      </c>
+      <c r="U10" s="39">
+        <v>0</v>
+      </c>
+      <c r="V10" s="40">
+        <v>0</v>
+      </c>
+      <c r="W10" s="39">
+        <v>0</v>
+      </c>
+      <c r="X10" s="40">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="39">
+        <v>11.538</v>
       </c>
       <c r="Z10" s="39">
-        <v>11.538</v>
-      </c>
-      <c r="AA10" s="39">
         <v>10.262</v>
       </c>
+      <c r="AA10" s="38">
+        <v>0</v>
+      </c>
       <c r="AB10" s="38">
         <v>0</v>
       </c>
-      <c r="AC10" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="37">
-        <v>0</v>
+      <c r="AC10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="39">
+        <v>8.9689999999999994</v>
       </c>
       <c r="AG10" s="39">
-        <v>8.9689999999999994</v>
-      </c>
-      <c r="AH10" s="39">
         <v>7.6920000000000002</v>
       </c>
-      <c r="AI10" s="38">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="39">
+      <c r="AH10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="39">
         <v>6.415</v>
       </c>
-      <c r="AK10" s="38">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="39">
+      <c r="AJ10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="39">
         <v>5.1230000000000002</v>
       </c>
-      <c r="AM10" s="38">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="37">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="39">
+      <c r="AL10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="39">
         <v>3.8460000000000001</v>
       </c>
-      <c r="AP10" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="37">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="38">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="37">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="38">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="37">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="39">
+      <c r="AO10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="39">
         <v>15.385</v>
       </c>
-      <c r="AW10" s="37">
-        <v>0</v>
+      <c r="AV10" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="39">
+        <v>2.569</v>
       </c>
       <c r="AX10" s="39">
-        <v>2.569</v>
-      </c>
-      <c r="AY10" s="39">
         <v>1.2769999999999999</v>
       </c>
-      <c r="AZ10" s="38">
+      <c r="AY10" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="37">
         <v>0</v>
       </c>
       <c r="BA10" s="37">
@@ -2718,16 +2688,13 @@
       <c r="BC10" s="37">
         <v>0</v>
       </c>
-      <c r="BD10" s="37">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="38">
+      <c r="BD10" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:56" ht="25.05" customHeight="1">
       <c r="A11" s="47" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B11" s="37">
         <v>0</v>
@@ -2768,118 +2735,118 @@
       <c r="N11" s="39">
         <v>12.815</v>
       </c>
-      <c r="O11" s="37">
-        <v>0</v>
-      </c>
-      <c r="P11" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="37">
+      <c r="O11" s="38">
+        <v>0</v>
+      </c>
+      <c r="P11" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="38">
         <v>0</v>
       </c>
       <c r="R11" s="38">
         <v>0</v>
       </c>
-      <c r="S11" s="38">
-        <v>0</v>
-      </c>
-      <c r="T11" s="39">
-        <v>0</v>
-      </c>
-      <c r="U11" s="40">
-        <v>0</v>
-      </c>
-      <c r="V11" s="39">
-        <v>0</v>
-      </c>
-      <c r="W11" s="40">
-        <v>0</v>
-      </c>
-      <c r="X11" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="40">
-        <v>0</v>
+      <c r="S11" s="39">
+        <v>0</v>
+      </c>
+      <c r="T11" s="40">
+        <v>0</v>
+      </c>
+      <c r="U11" s="39">
+        <v>0</v>
+      </c>
+      <c r="V11" s="40">
+        <v>0</v>
+      </c>
+      <c r="W11" s="39">
+        <v>0</v>
+      </c>
+      <c r="X11" s="40">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="39">
+        <v>11.538</v>
       </c>
       <c r="Z11" s="39">
-        <v>11.538</v>
-      </c>
-      <c r="AA11" s="39">
         <v>10.262</v>
       </c>
+      <c r="AA11" s="38">
+        <v>0</v>
+      </c>
       <c r="AB11" s="38">
         <v>0</v>
       </c>
-      <c r="AC11" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="38">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="37">
-        <v>0</v>
+      <c r="AC11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="39">
+        <v>8.9689999999999994</v>
       </c>
       <c r="AG11" s="39">
-        <v>8.9689999999999994</v>
-      </c>
-      <c r="AH11" s="39">
         <v>7.6920000000000002</v>
       </c>
-      <c r="AI11" s="38">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="39">
+      <c r="AH11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="39">
         <v>6.415</v>
       </c>
-      <c r="AK11" s="38">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="39">
+      <c r="AJ11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="39">
         <v>5.1230000000000002</v>
       </c>
-      <c r="AM11" s="38">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="37">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="39">
+      <c r="AL11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="39">
         <v>3.8460000000000001</v>
       </c>
-      <c r="AP11" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="37">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="38">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="37">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="38">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="37">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="39">
+      <c r="AO11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="39">
         <v>15.385</v>
       </c>
-      <c r="AW11" s="37">
-        <v>0</v>
+      <c r="AV11" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="39">
+        <v>2.569</v>
       </c>
       <c r="AX11" s="39">
-        <v>2.569</v>
-      </c>
-      <c r="AY11" s="39">
         <v>1.2769999999999999</v>
       </c>
-      <c r="AZ11" s="38">
+      <c r="AY11" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="37">
         <v>0</v>
       </c>
       <c r="BA11" s="37">
@@ -2891,16 +2858,13 @@
       <c r="BC11" s="37">
         <v>0</v>
       </c>
-      <c r="BD11" s="37">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="38">
+      <c r="BD11" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:56" ht="25.05" customHeight="1">
       <c r="A12" s="47" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B12" s="12">
         <v>9.8859999999999992</v>
@@ -2941,122 +2905,122 @@
       <c r="N12" s="10">
         <v>0</v>
       </c>
-      <c r="O12" s="10">
-        <v>0</v>
-      </c>
-      <c r="P12" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>0</v>
-      </c>
-      <c r="R12" s="12">
+      <c r="O12" s="11">
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
         <v>5.5</v>
       </c>
-      <c r="S12" s="11">
-        <v>0</v>
-      </c>
-      <c r="T12" s="12">
-        <v>0</v>
-      </c>
-      <c r="U12" s="13">
-        <v>0</v>
-      </c>
-      <c r="V12" s="12">
+      <c r="R12" s="11">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <v>0</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
         <v>12.086</v>
       </c>
-      <c r="W12" s="13">
-        <v>0</v>
-      </c>
-      <c r="X12" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="12">
+      <c r="V12" s="13">
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <v>0</v>
+      </c>
+      <c r="X12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
         <v>10.986000000000001</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="Z12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="11">
         <v>0</v>
       </c>
       <c r="AB12" s="11">
         <v>0</v>
       </c>
-      <c r="AC12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="41">
+      <c r="AC12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="41">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AI12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="12">
+      <c r="AH12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="12">
         <v>3.3</v>
       </c>
-      <c r="AK12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="10">
+      <c r="AJ12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="11">
         <v>0</v>
       </c>
       <c r="AO12" s="11">
         <v>0</v>
       </c>
-      <c r="AP12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="12">
+      <c r="AP12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="12">
         <v>2.2000000000000002</v>
       </c>
+      <c r="AZ12" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="BA12" s="10">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="10">
         <v>0</v>
@@ -3064,16 +3028,13 @@
       <c r="BC12" s="10">
         <v>0</v>
       </c>
-      <c r="BD12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="11">
+      <c r="BD12" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:56" ht="25.05" customHeight="1">
       <c r="A13" s="47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B13" s="12">
         <v>9.8859999999999992</v>
@@ -3114,122 +3075,122 @@
       <c r="N13" s="10">
         <v>0</v>
       </c>
-      <c r="O13" s="10">
-        <v>0</v>
-      </c>
-      <c r="P13" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>0</v>
-      </c>
-      <c r="R13" s="12">
+      <c r="O13" s="11">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
         <v>5.5</v>
       </c>
-      <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="12">
-        <v>0</v>
-      </c>
-      <c r="U13" s="13">
-        <v>0</v>
-      </c>
-      <c r="V13" s="12">
+      <c r="R13" s="11">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
         <v>12.086</v>
       </c>
-      <c r="W13" s="13">
-        <v>0</v>
-      </c>
-      <c r="X13" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="12">
+      <c r="V13" s="13">
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <v>0</v>
+      </c>
+      <c r="X13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
         <v>10.986000000000001</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="Z13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="11">
         <v>0</v>
       </c>
       <c r="AB13" s="11">
         <v>0</v>
       </c>
-      <c r="AC13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="41">
+      <c r="AC13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="41">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AI13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="12">
+      <c r="AH13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="12">
         <v>3.3</v>
       </c>
-      <c r="AK13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="10">
+      <c r="AJ13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="11">
         <v>0</v>
       </c>
       <c r="AO13" s="11">
         <v>0</v>
       </c>
-      <c r="AP13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="12">
+      <c r="AP13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="12">
         <v>2.2000000000000002</v>
       </c>
+      <c r="AZ13" s="10">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="BA13" s="10">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="10">
         <v>0</v>
@@ -3237,16 +3198,13 @@
       <c r="BC13" s="10">
         <v>0</v>
       </c>
-      <c r="BD13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="11">
+      <c r="BD13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:56" ht="25.05" customHeight="1">
       <c r="A14" s="47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B14" s="16">
         <v>0</v>
@@ -3287,118 +3245,118 @@
       <c r="N14" s="19">
         <v>3.8460000000000001</v>
       </c>
-      <c r="O14" s="16">
-        <v>0</v>
-      </c>
-      <c r="P14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16">
+      <c r="O14" s="17">
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="17">
         <v>0</v>
       </c>
       <c r="R14" s="17">
         <v>0</v>
       </c>
-      <c r="S14" s="17">
-        <v>0</v>
-      </c>
-      <c r="T14" s="19">
-        <v>0</v>
-      </c>
-      <c r="U14" s="20">
+      <c r="S14" s="19">
+        <v>0</v>
+      </c>
+      <c r="T14" s="20">
+        <v>0</v>
+      </c>
+      <c r="U14" s="19">
         <v>0</v>
       </c>
       <c r="V14" s="19">
-        <v>0</v>
+        <v>15.385</v>
       </c>
       <c r="W14" s="19">
-        <v>15.385</v>
-      </c>
-      <c r="X14" s="19">
         <v>14.108000000000001</v>
       </c>
-      <c r="Y14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="19">
+      <c r="X14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="19">
         <v>2.569</v>
       </c>
-      <c r="AA14" s="16">
+      <c r="Z14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="17">
         <v>0</v>
       </c>
       <c r="AB14" s="17">
         <v>0</v>
       </c>
-      <c r="AC14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="19">
+      <c r="AC14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="19">
         <v>11.538</v>
       </c>
-      <c r="AI14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="16">
+      <c r="AH14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="17">
         <v>0</v>
       </c>
       <c r="AO14" s="17">
         <v>0</v>
       </c>
-      <c r="AP14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AR14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="16">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="19">
+      <c r="AP14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="19">
         <v>12.815</v>
       </c>
-      <c r="AZ14" s="17">
+      <c r="AY14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="16">
         <v>0</v>
       </c>
       <c r="BA14" s="16">
@@ -3410,16 +3368,13 @@
       <c r="BC14" s="16">
         <v>0</v>
       </c>
-      <c r="BD14" s="16">
-        <v>0</v>
-      </c>
-      <c r="BE14" s="19">
+      <c r="BD14" s="19">
         <v>1.2769999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:56" ht="25.05" customHeight="1">
       <c r="A15" s="47" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B15" s="16">
         <v>0</v>
@@ -3460,118 +3415,118 @@
       <c r="N15" s="19">
         <v>3.8460000000000001</v>
       </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16">
+      <c r="O15" s="17">
+        <v>0</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="17">
         <v>0</v>
       </c>
       <c r="R15" s="17">
         <v>0</v>
       </c>
-      <c r="S15" s="17">
-        <v>0</v>
-      </c>
-      <c r="T15" s="19">
-        <v>0</v>
-      </c>
-      <c r="U15" s="20">
+      <c r="S15" s="19">
+        <v>0</v>
+      </c>
+      <c r="T15" s="20">
+        <v>0</v>
+      </c>
+      <c r="U15" s="19">
         <v>0</v>
       </c>
       <c r="V15" s="19">
-        <v>0</v>
+        <v>15.385</v>
       </c>
       <c r="W15" s="19">
-        <v>15.385</v>
-      </c>
-      <c r="X15" s="19">
         <v>14.108000000000001</v>
       </c>
-      <c r="Y15" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="19">
+      <c r="X15" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="19">
         <v>2.569</v>
       </c>
-      <c r="AA15" s="16">
+      <c r="Z15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="17">
         <v>0</v>
       </c>
       <c r="AB15" s="17">
         <v>0</v>
       </c>
-      <c r="AC15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="19">
+      <c r="AC15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="19">
         <v>11.538</v>
       </c>
-      <c r="AI15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="16">
+      <c r="AH15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="17">
         <v>0</v>
       </c>
       <c r="AO15" s="17">
         <v>0</v>
       </c>
-      <c r="AP15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AR15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="17">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="19">
+      <c r="AP15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="19">
         <v>12.815</v>
       </c>
-      <c r="AZ15" s="17">
+      <c r="AY15" s="17">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="16">
         <v>0</v>
       </c>
       <c r="BA15" s="16">
@@ -3583,16 +3538,13 @@
       <c r="BC15" s="16">
         <v>0</v>
       </c>
-      <c r="BD15" s="16">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="19">
+      <c r="BD15" s="19">
         <v>1.2769999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:56" ht="25.05" customHeight="1">
       <c r="A16" s="47" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16" s="25">
         <v>0</v>
@@ -3633,118 +3585,118 @@
       <c r="N16" s="25">
         <v>0</v>
       </c>
-      <c r="O16" s="25">
-        <v>0</v>
-      </c>
-      <c r="P16" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="25">
+      <c r="O16" s="23">
+        <v>0</v>
+      </c>
+      <c r="P16" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="23">
         <v>0</v>
       </c>
       <c r="R16" s="23">
         <v>0</v>
       </c>
-      <c r="S16" s="23">
-        <v>0</v>
-      </c>
-      <c r="T16" s="26">
-        <v>0</v>
-      </c>
-      <c r="U16" s="27">
-        <v>0</v>
-      </c>
-      <c r="V16" s="26">
-        <v>0</v>
-      </c>
-      <c r="W16" s="27">
-        <v>0</v>
-      </c>
-      <c r="X16" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="26">
+      <c r="S16" s="26">
+        <v>0</v>
+      </c>
+      <c r="T16" s="27">
+        <v>0</v>
+      </c>
+      <c r="U16" s="26">
+        <v>0</v>
+      </c>
+      <c r="V16" s="27">
+        <v>0</v>
+      </c>
+      <c r="W16" s="26">
+        <v>0</v>
+      </c>
+      <c r="X16" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="26">
         <v>8.8800000000000008</v>
       </c>
-      <c r="AA16" s="25">
+      <c r="Z16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="23">
         <v>0</v>
       </c>
       <c r="AB16" s="23">
         <v>0</v>
       </c>
-      <c r="AC16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="25">
-        <v>0</v>
+      <c r="AC16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="26">
+        <v>2.2200000000000002</v>
       </c>
       <c r="AG16" s="26">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="AH16" s="26">
         <v>6.66</v>
       </c>
-      <c r="AI16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="26">
+      <c r="AH16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="26">
         <v>4.4400000000000004</v>
       </c>
-      <c r="AK16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="25">
-        <v>0</v>
+      <c r="AJ16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="26">
+        <v>20</v>
       </c>
       <c r="AM16" s="26">
-        <v>20</v>
-      </c>
-      <c r="AN16" s="26">
         <v>17.78</v>
       </c>
+      <c r="AN16" s="23">
+        <v>0</v>
+      </c>
       <c r="AO16" s="23">
         <v>0</v>
       </c>
-      <c r="AP16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="23">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="23">
+      <c r="AP16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="25">
         <v>0</v>
       </c>
       <c r="BA16" s="25">
@@ -3756,16 +3708,13 @@
       <c r="BC16" s="25">
         <v>0</v>
       </c>
-      <c r="BD16" s="25">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="23">
+      <c r="BD16" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:56" ht="25.05" customHeight="1">
       <c r="A17" s="47" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B17" s="25">
         <v>0</v>
@@ -3806,118 +3755,118 @@
       <c r="N17" s="25">
         <v>0</v>
       </c>
-      <c r="O17" s="25">
-        <v>0</v>
-      </c>
-      <c r="P17" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="25">
+      <c r="O17" s="23">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="23">
         <v>0</v>
       </c>
       <c r="R17" s="23">
         <v>0</v>
       </c>
-      <c r="S17" s="23">
-        <v>0</v>
-      </c>
-      <c r="T17" s="26">
-        <v>0</v>
-      </c>
-      <c r="U17" s="27">
-        <v>0</v>
-      </c>
-      <c r="V17" s="26">
-        <v>0</v>
-      </c>
-      <c r="W17" s="27">
-        <v>0</v>
-      </c>
-      <c r="X17" s="26">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="27">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="26">
+      <c r="S17" s="26">
+        <v>0</v>
+      </c>
+      <c r="T17" s="27">
+        <v>0</v>
+      </c>
+      <c r="U17" s="26">
+        <v>0</v>
+      </c>
+      <c r="V17" s="27">
+        <v>0</v>
+      </c>
+      <c r="W17" s="26">
+        <v>0</v>
+      </c>
+      <c r="X17" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="26">
         <v>8.8800000000000008</v>
       </c>
-      <c r="AA17" s="25">
+      <c r="Z17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="23">
         <v>0</v>
       </c>
       <c r="AB17" s="23">
         <v>0</v>
       </c>
-      <c r="AC17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="25">
-        <v>0</v>
+      <c r="AC17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="26">
+        <v>2.2200000000000002</v>
       </c>
       <c r="AG17" s="26">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="AH17" s="26">
         <v>6.66</v>
       </c>
-      <c r="AI17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="26">
+      <c r="AH17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="26">
         <v>4.4400000000000004</v>
       </c>
-      <c r="AK17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="25">
-        <v>0</v>
+      <c r="AJ17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="26">
+        <v>20</v>
       </c>
       <c r="AM17" s="26">
-        <v>20</v>
-      </c>
-      <c r="AN17" s="26">
         <v>17.78</v>
       </c>
+      <c r="AN17" s="23">
+        <v>0</v>
+      </c>
       <c r="AO17" s="23">
         <v>0</v>
       </c>
-      <c r="AP17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="25">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="23">
+      <c r="AP17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="25">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="23">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="25">
         <v>0</v>
       </c>
       <c r="BA17" s="25">
@@ -3929,16 +3878,13 @@
       <c r="BC17" s="25">
         <v>0</v>
       </c>
-      <c r="BD17" s="25">
-        <v>0</v>
-      </c>
-      <c r="BE17" s="23">
+      <c r="BD17" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:56" ht="25.05" customHeight="1">
       <c r="A18" s="47" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B18" s="30">
         <v>0</v>
@@ -3979,118 +3925,118 @@
       <c r="N18" s="30">
         <v>0</v>
       </c>
-      <c r="O18" s="30">
-        <v>0</v>
-      </c>
-      <c r="P18" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="30">
-        <v>0</v>
-      </c>
-      <c r="R18" s="32">
+      <c r="O18" s="31">
+        <v>0</v>
+      </c>
+      <c r="P18" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="32">
         <v>8.3330000000000002</v>
       </c>
-      <c r="S18" s="31">
-        <v>0</v>
-      </c>
-      <c r="T18" s="32">
-        <v>0</v>
-      </c>
-      <c r="U18" s="33">
-        <v>0</v>
-      </c>
-      <c r="V18" s="32">
+      <c r="R18" s="31">
+        <v>0</v>
+      </c>
+      <c r="S18" s="32">
+        <v>0</v>
+      </c>
+      <c r="T18" s="33">
+        <v>0</v>
+      </c>
+      <c r="U18" s="32">
         <v>19.443999999999999</v>
       </c>
-      <c r="W18" s="33">
-        <v>0</v>
-      </c>
-      <c r="X18" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="32">
+      <c r="V18" s="33">
+        <v>0</v>
+      </c>
+      <c r="W18" s="32">
+        <v>0</v>
+      </c>
+      <c r="X18" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="32">
         <v>16.667000000000002</v>
       </c>
-      <c r="AA18" s="30">
+      <c r="Z18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="31">
         <v>0</v>
       </c>
       <c r="AB18" s="31">
         <v>0</v>
       </c>
-      <c r="AC18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="32">
+      <c r="AC18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="32">
         <v>5.556</v>
       </c>
-      <c r="AH18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="32">
+      <c r="AG18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="32">
         <v>2.778</v>
       </c>
-      <c r="AK18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="30">
+      <c r="AJ18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="31">
         <v>0</v>
       </c>
       <c r="AO18" s="31">
         <v>0</v>
       </c>
-      <c r="AP18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="31">
+      <c r="AP18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="31">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="30">
         <v>0</v>
       </c>
       <c r="BA18" s="30">
@@ -4102,16 +4048,13 @@
       <c r="BC18" s="30">
         <v>0</v>
       </c>
-      <c r="BD18" s="30">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="31">
+      <c r="BD18" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:56" ht="25.05" customHeight="1">
       <c r="A19" s="47" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B19" s="30">
         <v>0</v>
@@ -4152,118 +4095,118 @@
       <c r="N19" s="30">
         <v>0</v>
       </c>
-      <c r="O19" s="30">
-        <v>0</v>
-      </c>
-      <c r="P19" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="30">
-        <v>0</v>
-      </c>
-      <c r="R19" s="32">
+      <c r="O19" s="31">
+        <v>0</v>
+      </c>
+      <c r="P19" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="32">
         <v>8.3330000000000002</v>
       </c>
-      <c r="S19" s="31">
-        <v>0</v>
-      </c>
-      <c r="T19" s="32">
-        <v>0</v>
-      </c>
-      <c r="U19" s="33">
-        <v>0</v>
-      </c>
-      <c r="V19" s="32">
+      <c r="R19" s="31">
+        <v>0</v>
+      </c>
+      <c r="S19" s="32">
+        <v>0</v>
+      </c>
+      <c r="T19" s="33">
+        <v>0</v>
+      </c>
+      <c r="U19" s="32">
         <v>19.443999999999999</v>
       </c>
-      <c r="W19" s="33">
-        <v>0</v>
-      </c>
-      <c r="X19" s="32">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="32">
+      <c r="V19" s="33">
+        <v>0</v>
+      </c>
+      <c r="W19" s="32">
+        <v>0</v>
+      </c>
+      <c r="X19" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="32">
         <v>16.667000000000002</v>
       </c>
-      <c r="AA19" s="30">
+      <c r="Z19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="31">
         <v>0</v>
       </c>
       <c r="AB19" s="31">
         <v>0</v>
       </c>
-      <c r="AC19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="32">
+      <c r="AC19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="32">
         <v>5.556</v>
       </c>
-      <c r="AH19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="32">
+      <c r="AG19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="32">
         <v>2.778</v>
       </c>
-      <c r="AK19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="30">
+      <c r="AJ19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="31">
         <v>0</v>
       </c>
       <c r="AO19" s="31">
         <v>0</v>
       </c>
-      <c r="AP19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="31">
+      <c r="AP19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="30">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="31">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="30">
         <v>0</v>
       </c>
       <c r="BA19" s="30">
@@ -4275,16 +4218,13 @@
       <c r="BC19" s="30">
         <v>0</v>
       </c>
-      <c r="BD19" s="30">
-        <v>0</v>
-      </c>
-      <c r="BE19" s="31">
+      <c r="BD19" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:56" ht="25.05" customHeight="1">
       <c r="A20" s="48" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B20" s="39">
         <v>13.186</v>
@@ -4325,139 +4265,136 @@
       <c r="N20" s="37">
         <v>0</v>
       </c>
-      <c r="O20" s="37">
-        <v>0</v>
-      </c>
-      <c r="P20" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="37">
+      <c r="O20" s="38">
+        <v>0</v>
+      </c>
+      <c r="P20" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="38">
         <v>0</v>
       </c>
       <c r="R20" s="38">
         <v>0</v>
       </c>
-      <c r="S20" s="38">
-        <v>0</v>
-      </c>
-      <c r="T20" s="39">
-        <v>0</v>
-      </c>
-      <c r="U20" s="40">
-        <v>0</v>
-      </c>
-      <c r="V20" s="39">
-        <v>0</v>
-      </c>
-      <c r="W20" s="40">
+      <c r="S20" s="39">
+        <v>0</v>
+      </c>
+      <c r="T20" s="40">
+        <v>0</v>
+      </c>
+      <c r="U20" s="39">
+        <v>0</v>
+      </c>
+      <c r="V20" s="40">
+        <v>0</v>
+      </c>
+      <c r="W20" s="39">
         <v>0</v>
       </c>
       <c r="X20" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="39">
         <v>9.8859999999999992</v>
       </c>
-      <c r="Z20" s="42">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="37">
+      <c r="Y20" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="38">
         <v>0</v>
       </c>
       <c r="AB20" s="38">
         <v>0</v>
       </c>
-      <c r="AC20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="38">
-        <v>0</v>
+      <c r="AC20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="39">
+        <v>7.6859999999999999</v>
       </c>
       <c r="AF20" s="39">
-        <v>7.6859999999999999</v>
-      </c>
-      <c r="AG20" s="39">
         <v>6.6</v>
       </c>
-      <c r="AH20" s="37">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="37">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="37">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="39">
+      <c r="AG20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="39">
         <v>5.5</v>
       </c>
+      <c r="AN20" s="38">
+        <v>0</v>
+      </c>
       <c r="AO20" s="38">
         <v>0</v>
       </c>
-      <c r="AP20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="37">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="37">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="37">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="37">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="38">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="37">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="43">
+      <c r="AP20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="37">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="43">
         <v>4.4000000000000004</v>
       </c>
-      <c r="BA20" s="37">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="39">
+      <c r="AZ20" s="37">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="39">
         <v>3.3</v>
       </c>
+      <c r="BB20" s="37">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="BC20" s="37">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BD20" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BE20" s="38">
+      <c r="BD20" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:56" ht="25.05" customHeight="1">
       <c r="A21" s="48" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B21" s="46">
         <v>13.186</v>
@@ -4498,137 +4435,134 @@
       <c r="N21" s="37">
         <v>0</v>
       </c>
-      <c r="O21" s="37">
-        <v>0</v>
-      </c>
-      <c r="P21" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="37">
+      <c r="O21" s="38">
+        <v>0</v>
+      </c>
+      <c r="P21" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="38">
         <v>0</v>
       </c>
       <c r="R21" s="38">
         <v>0</v>
       </c>
-      <c r="S21" s="38">
-        <v>0</v>
-      </c>
-      <c r="T21" s="39">
-        <v>0</v>
-      </c>
-      <c r="U21" s="40">
-        <v>0</v>
-      </c>
-      <c r="V21" s="39">
-        <v>0</v>
-      </c>
-      <c r="W21" s="40">
+      <c r="S21" s="39">
+        <v>0</v>
+      </c>
+      <c r="T21" s="40">
+        <v>0</v>
+      </c>
+      <c r="U21" s="39">
+        <v>0</v>
+      </c>
+      <c r="V21" s="40">
+        <v>0</v>
+      </c>
+      <c r="W21" s="39">
         <v>0</v>
       </c>
       <c r="X21" s="39">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="39">
         <v>9.8859999999999992</v>
       </c>
-      <c r="Z21" s="42">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="37">
+      <c r="Y21" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="38">
         <v>0</v>
       </c>
       <c r="AB21" s="38">
         <v>0</v>
       </c>
-      <c r="AC21" s="38">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="37">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="38">
-        <v>0</v>
+      <c r="AC21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="39">
+        <v>7.6859999999999999</v>
       </c>
       <c r="AF21" s="39">
-        <v>7.6859999999999999</v>
-      </c>
-      <c r="AG21" s="39">
         <v>6.6</v>
       </c>
-      <c r="AH21" s="37">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="38">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="37">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="38">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="37">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="38">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="39">
+      <c r="AG21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="39">
         <v>5.5</v>
       </c>
+      <c r="AN21" s="38">
+        <v>0</v>
+      </c>
       <c r="AO21" s="38">
         <v>0</v>
       </c>
-      <c r="AP21" s="38">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="37">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="38">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="37">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="38">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="37">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="38">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="37">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="38">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="37">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="43">
+      <c r="AP21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="37">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="43">
         <v>4.4000000000000004</v>
       </c>
-      <c r="BA21" s="37">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="39">
+      <c r="AZ21" s="37">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="39">
         <v>3.3</v>
       </c>
+      <c r="BB21" s="37">
+        <v>2.2000000000000002</v>
+      </c>
       <c r="BC21" s="37">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BD21" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BE21" s="38">
+      <c r="BD21" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:57" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:56" ht="25.05" customHeight="1">
       <c r="E22" s="44"/>
     </row>
   </sheetData>
